--- a/results/many_equal/heapsort.xlsx
+++ b/results/many_equal/heapsort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{22065705-74D5-4D91-85F7-C31538AEB692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{999DE0A2-1A07-4BE7-A2D1-6BB870EC5F2A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{22065705-74D5-4D91-85F7-C31538AEB692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7034354-6E43-448A-8A6E-2B84D28804BC}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="1845" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heapsort" sheetId="1" r:id="rId1"/>
@@ -590,19 +590,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -628,19 +622,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -671,19 +659,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -782,19 +764,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -904,10 +880,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -935,10 +912,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -958,9 +936,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -974,8 +952,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1004,9 +983,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1021,10 +1000,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1052,10 +1032,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1085,8 +1066,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1126,8 +1108,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1151,28 +1134,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1235,33 +1207,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1269,34 +1243,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1305,8 +1271,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1325,6 +1292,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1333,35 +1308,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1373,29 +1358,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1413,18 +1400,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1434,20 +1424,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1461,14 +1451,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1482,8 +1472,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1497,6 +1488,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1508,9 +1505,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1525,100 +1522,93 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1626,14 +1616,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1645,19 +1635,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1673,6 +1656,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1681,8 +1665,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1692,7 +1677,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1700,9 +1685,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1713,8 +1698,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1726,6 +1712,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1769,6 +1761,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/results/many_equal/heapsort.xlsx
+++ b/results/many_equal/heapsort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{22065705-74D5-4D91-85F7-C31538AEB692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7034354-6E43-448A-8A6E-2B84D28804BC}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{22065705-74D5-4D91-85F7-C31538AEB692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04099336-905A-4966-A93E-08B6F07C7C1C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="1125" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heapsort" sheetId="1" r:id="rId1"/>
@@ -2069,6 +2069,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1">

--- a/results/many_equal/heapsort.xlsx
+++ b/results/many_equal/heapsort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{22065705-74D5-4D91-85F7-C31538AEB692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04099336-905A-4966-A93E-08B6F07C7C1C}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{D3C603DB-DE62-4DF7-ADC6-6D93E51178E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C337F820-AEEB-4E97-843D-8E4ACFA0770E}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1125" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9885" yWindow="3360" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heapsort" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>BEST_CASE</t>
+    <t>AVERAGE_CASE</t>
   </si>
   <si>
-    <t>AVERAGE_CASE</t>
+    <t>BEST_CASE</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BEST_CASE</c:v>
+                  <c:v>AVERAGE_CASE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -713,31 +713,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>633</c:v>
+                  <c:v>8160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1066</c:v>
+                  <c:v>18020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2066</c:v>
+                  <c:v>39220</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4033</c:v>
+                  <c:v>84860</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8500</c:v>
+                  <c:v>180460</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15966</c:v>
+                  <c:v>378480</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31900</c:v>
+                  <c:v>757480</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71166</c:v>
+                  <c:v>1508130</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>127766</c:v>
+                  <c:v>3012890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,7 +745,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7692-40A5-BBFF-123B894EF0DF}"/>
+              <c16:uniqueId val="{00000000-C219-4DA2-8127-3C643B404DB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -758,7 +758,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AVERAGE_CASE</c:v>
+                  <c:v>BEST_CASE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -818,31 +818,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8070</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17680</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46720</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90340</c:v>
+                  <c:v>3770</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192170</c:v>
+                  <c:v>7510</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>410520</c:v>
+                  <c:v>14950</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>891630</c:v>
+                  <c:v>29890</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1855790</c:v>
+                  <c:v>59660</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4008190</c:v>
+                  <c:v>119900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,7 +850,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7692-40A5-BBFF-123B894EF0DF}"/>
+              <c16:uniqueId val="{00000001-C219-4DA2-8127-3C643B404DB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -863,11 +863,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1129002431"/>
-        <c:axId val="1129007007"/>
+        <c:axId val="447712223"/>
+        <c:axId val="447710143"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1129002431"/>
+        <c:axId val="447712223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1129007007"/>
+        <c:crossAx val="447710143"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1129007007"/>
+        <c:axId val="447710143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,8 +1014,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in ns</a:t>
+                  <a:t>Zeit in</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> ns</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1079,7 +1084,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1129002431"/>
+        <c:crossAx val="447712223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1726,23 +1731,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B431B0-3493-999F-E123-4B10AFF65185}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7B34E5-2906-6D5A-1135-3329E881B076}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2111,31 +2118,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>633</v>
+        <v>8160</v>
       </c>
       <c r="C2">
-        <v>1066</v>
+        <v>18020</v>
       </c>
       <c r="D2">
-        <v>2066</v>
+        <v>39220</v>
       </c>
       <c r="E2">
-        <v>4033</v>
+        <v>84860</v>
       </c>
       <c r="F2">
-        <v>8500</v>
+        <v>180460</v>
       </c>
       <c r="G2">
-        <v>15966</v>
+        <v>378480</v>
       </c>
       <c r="H2">
-        <v>31900</v>
+        <v>757480</v>
       </c>
       <c r="I2">
-        <v>71166</v>
+        <v>1508130</v>
       </c>
       <c r="J2">
-        <v>127766</v>
+        <v>3012890</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2143,31 +2150,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8070</v>
+        <v>510</v>
       </c>
       <c r="C3">
-        <v>17680</v>
+        <v>980</v>
       </c>
       <c r="D3">
-        <v>46720</v>
+        <v>1900</v>
       </c>
       <c r="E3">
-        <v>90340</v>
+        <v>3770</v>
       </c>
       <c r="F3">
-        <v>192170</v>
+        <v>7510</v>
       </c>
       <c r="G3">
-        <v>410520</v>
+        <v>14950</v>
       </c>
       <c r="H3">
-        <v>891630</v>
+        <v>29890</v>
       </c>
       <c r="I3">
-        <v>1855790</v>
+        <v>59660</v>
       </c>
       <c r="J3">
-        <v>4008190</v>
+        <v>119900</v>
       </c>
     </row>
   </sheetData>
